--- a/fichiers_xls/test_give_names.xlsx
+++ b/fichiers_xls/test_give_names.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuille2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Feuille2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlfn_T_TEST" hidden="0" function="0" vbProcedure="0">NA()</definedName>

--- a/fichiers_xls/test_give_names.xlsx
+++ b/fichiers_xls/test_give_names.xlsx
@@ -64,11 +64,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -162,41 +162,41 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="1f497d"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="eeece1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4f81bd"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="c0504d"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="9bbb59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="8064a2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4bacc6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="f79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0000ff"/>
       </a:hlink>
       <a:folHlink>
         <a:srgbClr val="800080"/>
@@ -204,243 +204,135 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="50000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="35000">
               <a:schemeClr val="phClr">
                 <a:tint val="37000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:tint val="15000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:shade val="51000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
                 <a:shade val="93000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="94000"/>
-                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="40000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
                 <a:tint val="45000"/>
                 <a:shade val="99000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="20000"/>
-                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="30000"/>
-                <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -456,14 +348,14 @@
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.12890625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.12890625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col width="11.11" customWidth="1" style="2" min="1" max="893"/>
-    <col width="11.52" customWidth="1" style="2" min="894" max="1023"/>
-    <col width="11.52" customWidth="1" style="2" min="1024" max="1024"/>
+    <col width="11.11" customWidth="1" style="2" min="1" max="889"/>
+    <col width="11.52" customWidth="1" style="2" min="890" max="1020"/>
+    <col width="11.53" customWidth="1" style="2" min="16381" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.05" customHeight="1" s="3">
+    <row r="1" ht="15.75" customHeight="1" s="3">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Evaluatisme</t>
@@ -480,7 +372,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="16.05" customHeight="1" s="3">
+    <row r="2" ht="15.75" customHeight="1" s="3">
       <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
@@ -491,7 +383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="16.05" customHeight="1" s="3">
+    <row r="3" ht="15.75" customHeight="1" s="3">
       <c r="A3" s="2" t="n">
         <v>0</v>
       </c>
@@ -502,7 +394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" ht="16.05" customHeight="1" s="3">
+    <row r="4" ht="15.75" customHeight="1" s="3">
       <c r="A4" s="2" t="n">
         <v>1</v>
       </c>
@@ -513,7 +405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="16.05" customHeight="1" s="3">
+    <row r="5" ht="15.75" customHeight="1" s="3">
       <c r="A5" s="2" t="n">
         <v>0</v>
       </c>
@@ -551,12 +443,12 @@
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.66015625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="11.52" customWidth="1" style="2" min="955" max="1024"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.8" customHeight="1" s="3">
+    <row r="1" ht="12.75" customHeight="1" s="3">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Evaluatisme</t>
@@ -578,7 +470,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="12.8" customHeight="1" s="3">
+    <row r="2" ht="12.75" customHeight="1" s="3">
       <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
@@ -594,7 +486,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="12.8" customHeight="1" s="3">
+    <row r="3" ht="12.75" customHeight="1" s="3">
       <c r="A3" s="2" t="n">
         <v>0</v>
       </c>
@@ -610,7 +502,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="12.8" customHeight="1" s="3">
+    <row r="4" ht="12.75" customHeight="1" s="3">
       <c r="A4" s="2" t="n">
         <v>1</v>
       </c>
@@ -626,7 +518,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="12.8" customHeight="1" s="3">
+    <row r="5" ht="12.75" customHeight="1" s="3">
       <c r="A5" s="2" t="n">
         <v>0</v>
       </c>

--- a/fichiers_xls/test_give_names.xlsx
+++ b/fichiers_xls/test_give_names.xlsx
@@ -350,9 +350,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.12890625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col width="11.11" customWidth="1" style="2" min="1" max="889"/>
-    <col width="11.52" customWidth="1" style="2" min="890" max="1020"/>
-    <col width="11.53" customWidth="1" style="2" min="16381" max="16384"/>
+    <col width="11.11" customWidth="1" style="2" min="1" max="888"/>
+    <col width="11.52" customWidth="1" style="2" min="889" max="1019"/>
+    <col width="11.53" customWidth="1" style="2" min="16380" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" s="3">

--- a/fichiers_xls/test_give_names.xlsx
+++ b/fichiers_xls/test_give_names.xlsx
@@ -1,89 +1,58 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="Feuille2" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Feuille2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" name="_xlfn_T_TEST" vbProcedure="false">NA()</definedName>
+    <definedName name="_xlfn_T_TEST" hidden="0" function="0" vbProcedure="0">NA()</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.001"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
-  <si>
-    <t xml:space="preserve">Evaluatisme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Absolutisme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multiplisme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colonne de(s) maximum(s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Absolutisme_Multiplisme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evaluatisme_Absolutisme_Multiplisme</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="4">
     <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="0"/>
       <sz val="10"/>
+    </font>
+    <font>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -91,49 +60,104 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -313,182 +337,214 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.12890625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.12890625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="887" min="1" style="1" width="11.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1018" min="888" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16379" style="1" width="11.53"/>
+    <col width="11.11" customWidth="1" style="2" min="1" max="887"/>
+    <col width="11.52" customWidth="1" style="2" min="888" max="1018"/>
+    <col width="11.53" customWidth="1" style="2" min="16379" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="15.75" customHeight="1" s="3">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Evaluatisme</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Absolutisme</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Multiplisme</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.75" customHeight="1" s="3">
+      <c r="A2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1" s="3">
+      <c r="A3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="B3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1" s="3">
+      <c r="A4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" customHeight="1" s="3">
+      <c r="A5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="n">
+      <c r="B5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="n">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.3" right="0.3" top="0.609722222222222" bottom="0.370138888888889" header="0.1" footer="0.1"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="overThenDown" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <printOptions horizontalCentered="1" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.3" right="0.3" top="0.6097222222222221" bottom="0.370138888888889" header="0.1" footer="0.1"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="1" useFirstPageNumber="1" pageOrder="overThenDown" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentOddEven="0" differentFirst="0">
     <oddHeader>&amp;C&amp;P</oddHeader>
     <oddFooter>&amp;C&amp;F</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.66015625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="955" style="1" width="11.52"/>
+    <col width="11.52" customWidth="1" style="2" min="955" max="1024"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="12.75" customHeight="1" s="3">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Evaluatisme</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Absolutisme</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Multiplisme</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Colonne de(s) maximum(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="12.75" customHeight="1" s="3">
+      <c r="A2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Absolutisme</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="12.75" customHeight="1" s="3">
+      <c r="A3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="B3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>Absolutisme_Multiplisme</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="12.75" customHeight="1" s="3">
+      <c r="A4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>Evaluatisme_Absolutisme_Multiplisme</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="12.75" customHeight="1" s="3">
+      <c r="A5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>2</v>
+      <c r="B5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>Multiplisme</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentOddEven="0" differentFirst="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
--- a/fichiers_xls/test_give_names.xlsx
+++ b/fichiers_xls/test_give_names.xlsx
@@ -350,9 +350,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.12890625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col width="11.11" customWidth="1" style="2" min="1" max="887"/>
-    <col width="11.52" customWidth="1" style="2" min="888" max="1018"/>
-    <col width="11.53" customWidth="1" style="2" min="16379" max="16384"/>
+    <col width="11.11" customWidth="1" style="2" min="1" max="885"/>
+    <col width="11.52" customWidth="1" style="2" min="886" max="1016"/>
+    <col width="11.53" customWidth="1" style="2" min="16377" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" s="3">

--- a/fichiers_xls/test_give_names.xlsx
+++ b/fichiers_xls/test_give_names.xlsx
@@ -1,89 +1,58 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="Feuille2" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Feuille2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" name="_xlfn_T_TEST" vbProcedure="false">NA()</definedName>
+    <definedName name="_xlfn_T_TEST" hidden="0" function="0" vbProcedure="0">NA()</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.001"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
-  <si>
-    <t xml:space="preserve">Evaluatisme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Absolutisme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multiplisme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colonne de(s) maximum(s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Absolutisme_Multiplisme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evaluatisme_Absolutisme_Multiplisme</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="4">
     <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="0"/>
       <sz val="10"/>
+    </font>
+    <font>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -91,49 +60,104 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -313,182 +337,214 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.12890625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.12890625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="884" min="1" style="1" width="11.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1015" min="885" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16376" style="1" width="11.53"/>
+    <col width="11.11" customWidth="1" style="2" min="1" max="884"/>
+    <col width="11.52" customWidth="1" style="2" min="885" max="1015"/>
+    <col width="11.53" customWidth="1" style="2" min="16376" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="15.75" customHeight="1" s="3">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Evaluatisme</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Absolutisme</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Multiplisme</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.75" customHeight="1" s="3">
+      <c r="A2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1" s="3">
+      <c r="A3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="B3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1" s="3">
+      <c r="A4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" customHeight="1" s="3">
+      <c r="A5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="n">
+      <c r="B5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="n">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.3" right="0.3" top="0.609722222222222" bottom="0.370138888888889" header="0.1" footer="0.1"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="overThenDown" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <printOptions horizontalCentered="1" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.3" right="0.3" top="0.6097222222222221" bottom="0.370138888888889" header="0.1" footer="0.1"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="1" useFirstPageNumber="1" pageOrder="overThenDown" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentOddEven="0" differentFirst="0">
     <oddHeader>&amp;C&amp;P</oddHeader>
     <oddFooter>&amp;C&amp;F</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.66015625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="955" style="1" width="11.52"/>
+    <col width="11.52" customWidth="1" style="2" min="955" max="1024"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="12.75" customHeight="1" s="3">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Evaluatisme</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Absolutisme</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Multiplisme</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Colonne de(s) maximum(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="12.75" customHeight="1" s="3">
+      <c r="A2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Absolutisme</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="12.75" customHeight="1" s="3">
+      <c r="A3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="B3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>Absolutisme_Multiplisme</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="12.75" customHeight="1" s="3">
+      <c r="A4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>Evaluatisme_Absolutisme_Multiplisme</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="12.75" customHeight="1" s="3">
+      <c r="A5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>2</v>
+      <c r="B5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>Multiplisme</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentOddEven="0" differentFirst="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
--- a/fichiers_xls/test_give_names.xlsx
+++ b/fichiers_xls/test_give_names.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Feuille2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuille2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlfn_T_TEST" hidden="0" function="0" vbProcedure="0">NA()</definedName>

--- a/fichiers_xls/test_give_names.xlsx
+++ b/fichiers_xls/test_give_names.xlsx
@@ -1,89 +1,58 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="Feuille2" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuille2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" name="_xlfn_T_TEST" vbProcedure="false">NA()</definedName>
+    <definedName name="_xlfn_T_TEST" hidden="0" function="0" vbProcedure="0">NA()</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.001"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
-  <si>
-    <t xml:space="preserve">Evaluatisme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Absolutisme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multiplisme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colonne de(s) maximum(s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Absolutisme_Multiplisme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evaluatisme_Absolutisme_Multiplisme</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="4">
     <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="0"/>
       <sz val="10"/>
+    </font>
+    <font>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -91,49 +60,104 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -313,182 +337,214 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.12890625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.12890625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="883" min="1" style="1" width="11.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1014" min="884" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16375" style="1" width="11.53"/>
+    <col width="11.11" customWidth="1" style="2" min="1" max="883"/>
+    <col width="11.52" customWidth="1" style="2" min="884" max="1014"/>
+    <col width="11.53" customWidth="1" style="2" min="16375" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="15.75" customHeight="1" s="3">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Evaluatisme</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Absolutisme</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Multiplisme</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.75" customHeight="1" s="3">
+      <c r="A2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1" s="3">
+      <c r="A3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="B3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1" s="3">
+      <c r="A4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" customHeight="1" s="3">
+      <c r="A5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="n">
+      <c r="B5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="n">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.3" right="0.3" top="0.609722222222222" bottom="0.370138888888889" header="0.1" footer="0.1"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="overThenDown" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <printOptions horizontalCentered="1" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.3" right="0.3" top="0.6097222222222221" bottom="0.370138888888889" header="0.1" footer="0.1"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="1" useFirstPageNumber="1" pageOrder="overThenDown" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentOddEven="0" differentFirst="0">
     <oddHeader>&amp;C&amp;P</oddHeader>
     <oddFooter>&amp;C&amp;F</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.66015625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="955" style="1" width="11.52"/>
+    <col width="11.52" customWidth="1" style="2" min="955" max="1024"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="12.75" customHeight="1" s="3">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Evaluatisme</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Absolutisme</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Multiplisme</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Colonne de(s) maximum(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="12.75" customHeight="1" s="3">
+      <c r="A2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Absolutisme</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="12.75" customHeight="1" s="3">
+      <c r="A3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="B3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>Absolutisme_Multiplisme</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="12.75" customHeight="1" s="3">
+      <c r="A4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>Evaluatisme_Absolutisme_Multiplisme</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="12.75" customHeight="1" s="3">
+      <c r="A5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>2</v>
+      <c r="B5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>Multiplisme</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentOddEven="0" differentFirst="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
--- a/fichiers_xls/test_give_names.xlsx
+++ b/fichiers_xls/test_give_names.xlsx
@@ -350,9 +350,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.12890625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col width="11.11" customWidth="1" style="2" min="1" max="883"/>
-    <col width="11.52" customWidth="1" style="2" min="884" max="1014"/>
-    <col width="11.53" customWidth="1" style="2" min="16375" max="16384"/>
+    <col width="11.11" customWidth="1" style="2" min="1" max="882"/>
+    <col width="11.52" customWidth="1" style="2" min="883" max="1013"/>
+    <col width="11.53" customWidth="1" style="2" min="16374" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" s="3">
@@ -440,12 +440,13 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.66015625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col width="11.52" customWidth="1" style="2" min="955" max="1024"/>
+    <col width="11.52" customWidth="1" style="2" min="954" max="1023"/>
+    <col width="11.53" customWidth="1" style="2" min="16384" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1" s="3">
